--- a/BOM SIUE.xlsx
+++ b/BOM SIUE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Studia\LM331m1(1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44248BE1-1BAA-49E1-AB3C-FF0B92BB17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D0481-B2E2-48D4-AAC2-C58BA4B2350C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A90BA58C-8162-4AA7-B15C-980DEFEC99B1}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Nazwa</t>
   </si>
@@ -72,18 +50,12 @@
     <t>Lp</t>
   </si>
   <si>
-    <t>OPA171</t>
-  </si>
-  <si>
     <t>Op-amp</t>
   </si>
   <si>
     <t>Ilość</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/opa171aidbvt/wzmacniacze-operacyjne-smd/texas-instruments/</t>
-  </si>
-  <si>
     <t>AD8034</t>
   </si>
   <si>
@@ -157,6 +129,114 @@
   </si>
   <si>
     <t>Cena(całość)</t>
+  </si>
+  <si>
+    <t>LT1054CDW</t>
+  </si>
+  <si>
+    <t>Pompa ładunku 100mA</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/lt1054cdw/regulatory-napiecia-uklady-dc-dc/texas-instruments/</t>
+  </si>
+  <si>
+    <t>EEEFC1A101P</t>
+  </si>
+  <si>
+    <t>Kondensator 100u</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/eeefc1a101p/kondensatory-elektrolityczne-smd/panasonic/</t>
+  </si>
+  <si>
+    <t>EEEFC1C100AR</t>
+  </si>
+  <si>
+    <t>Kondensator 10u</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/eeefc1c100ar/kondensatory-elektrolityczne-smd/panasonic/</t>
+  </si>
+  <si>
+    <t>GRM1885C1H202JA01D</t>
+  </si>
+  <si>
+    <t>Kondensator 2n</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/grm1885c1h202ja01d/kondensatory-mlcc-smd/murata/</t>
+  </si>
+  <si>
+    <t>RC0603FR-0720K</t>
+  </si>
+  <si>
+    <t>Rezystor 20k</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rc0603fr-0720k/rezystory-smd/yageo/rc0603fr-0720kl/</t>
+  </si>
+  <si>
+    <t>TLV431BFTA</t>
+  </si>
+  <si>
+    <t>Źródło napięcia odniesienia 1.24V</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/tlv431bfta/zrodla-napiecia-odniesienia-uklady/diodes-incorporated/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/g32at-b203/potencjometry-smd-jednoobrotowe/tocos/</t>
+  </si>
+  <si>
+    <t>Potencjometr 20k</t>
+  </si>
+  <si>
+    <t>G32AT-B203</t>
+  </si>
+  <si>
+    <t>G32AT-B102</t>
+  </si>
+  <si>
+    <t>Potencjometr 1k</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/katalog/potencjometry-smd-jednoobrotowe_100561/?params=38:1436649_rezystancja:1ko&amp;onlyInStock=1</t>
+  </si>
+  <si>
+    <t>TLV2372IDGKR</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/tlv2372idgkr/wzmacniacze-operacyjne-smd/texas-instruments/</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>OPA2348AIDR</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/opa2348aidr/wzmacniacze-operacyjne-smd/texas-instruments/</t>
+  </si>
+  <si>
+    <t>MKS2B041001C00KO00</t>
+  </si>
+  <si>
+    <t>Kondensator 1u</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/mks2-1u_50-r/kondensatory-foliowe-tht/wima/mks2b041001c00ko00/</t>
+  </si>
+  <si>
+    <t>Dodano footprint</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
+    <t>Dodano symbol</t>
+  </si>
+  <si>
+    <t>TAK</t>
   </si>
 </sst>
 </file>
@@ -205,8 +285,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -542,21 +622,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6506BA97-DD70-4DDD-AFD6-521D618244B3}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
     <col min="3" max="4" width="17.26953125" customWidth="1"/>
     <col min="5" max="5" width="17.7265625" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -570,78 +652,100 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1">
-        <f>SUM(_xlfn.ANCHORARRAY(G2))</f>
-        <v>95.41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>7.31</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2:G10">E2:E10*F2:F10</f>
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7.26</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G10" si="0">E2*F2</f>
+        <v>7.26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>17.43</v>
       </c>
       <c r="G3">
-        <v>34.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>17.43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <f>SUM(G2:G20)</f>
+        <v>100.39000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -650,21 +754,28 @@
         <v>15.1</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
         <v>15.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -673,21 +784,28 @@
         <v>7.41</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
         <v>7.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -696,21 +814,28 @@
         <v>4.26</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
         <v>4.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -719,21 +844,28 @@
         <v>0.37</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -742,21 +874,28 @@
         <v>0.67</v>
       </c>
       <c r="G8">
+        <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -765,21 +904,28 @@
         <v>0.87</v>
       </c>
       <c r="G9">
+        <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -788,12 +934,330 @@
         <v>2.63</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
         <v>2.63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>13.84</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G20" si="1">E11*F11</f>
+        <v>13.84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.81</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.81</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.61</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.35</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.54</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.93</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3.27</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>3.27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3.02</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>6.04</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3.7</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{755B083D-B549-4D22-A9D7-14B36B0A8BA0}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{42C0443F-446A-483C-9607-56C88EEE1EED}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{89A9922E-11C2-425C-AA5D-E46233D9F2F5}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{D6AADE13-8919-4DA8-A1FB-C23ACE924DE9}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{0A7E2CA9-65B3-4481-A7C3-28A9C660E90E}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{16DE09E5-0580-4581-B6C3-4D7A29A269D0}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{CBC4DF35-5365-48D7-B295-57149D9083F1}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{B8C86BBB-5491-40C1-92E3-C37E2BE178F2}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{9429639E-E185-4794-AAB4-7C83782E71D3}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{4DE42AC7-6000-4662-AD2A-7D9D0D37A2F0}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{4CE3E4B5-8950-4D26-9A22-00D20A9B6612}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{086E9803-DBFD-469A-9F14-56B3129BD55B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM SIUE.xlsx
+++ b/BOM SIUE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Studia\LM331m1(1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D0481-B2E2-48D4-AAC2-C58BA4B2350C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A58315-994E-43BF-A90C-C9A5DC2CD04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A90BA58C-8162-4AA7-B15C-980DEFEC99B1}"/>
   </bookViews>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6506BA97-DD70-4DDD-AFD6-521D618244B3}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,7 +984,7 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12">
@@ -1014,7 +1014,7 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13">
@@ -1258,6 +1258,8 @@
     <hyperlink ref="D8" r:id="rId10" xr:uid="{4DE42AC7-6000-4662-AD2A-7D9D0D37A2F0}"/>
     <hyperlink ref="D9" r:id="rId11" xr:uid="{4CE3E4B5-8950-4D26-9A22-00D20A9B6612}"/>
     <hyperlink ref="D11" r:id="rId12" xr:uid="{086E9803-DBFD-469A-9F14-56B3129BD55B}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{D96BEC54-C981-4955-BA78-8A91C2917791}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{F8602EF4-B695-4EE4-B5CD-BECD4E0E2E13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
